--- a/indir/ccc.xlsx
+++ b/indir/ccc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,138 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabdouble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterpos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001:60:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001:60:70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001:60:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001:60:90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1002:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1003:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1004:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello:你好!:who are you?:张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1001:100|2:1001:100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,12 +240,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,81 +544,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.75" customHeight="1">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+    <row r="2" spans="1:7" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="21.75" customHeight="1">
+    <row r="3" spans="1:7" ht="21.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="21.75" customHeight="1">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="21.75" customHeight="1">
+    <row r="5" spans="1:7" ht="21.75" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="21.75" customHeight="1">
+    <row r="6" spans="1:7" ht="21.75" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" ht="21.75" customHeight="1">
+    <row r="7" spans="1:7" ht="21.75" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" ht="21.75" customHeight="1">
+    <row r="8" spans="1:7" ht="21.75" customHeight="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
